--- a/Photon_Dev/Projects/Sleeptrack2_Phase 2/Documents/Bill of Materials/BOM_Sleeptrack2_Phase2_v1.xlsx
+++ b/Photon_Dev/Projects/Sleeptrack2_Phase 2/Documents/Bill of Materials/BOM_Sleeptrack2_Phase2_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Part</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>RES SMD 330 OHM 5% 1/4W 0603</t>
+  </si>
+  <si>
+    <t>QTY</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -415,12 +424,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -428,7 +463,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,16 +470,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,10 +835,10 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -775,10 +849,10 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -789,10 +863,10 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -803,10 +877,10 @@
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E5"/>
@@ -823,10 +897,10 @@
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E6"/>
@@ -836,31 +910,31 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -871,10 +945,10 @@
       <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -883,10 +957,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -897,10 +971,10 @@
       <c r="B11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>78</v>
       </c>
       <c r="E11"/>
@@ -917,10 +991,10 @@
       <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -929,38 +1003,38 @@
       <c r="B13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -971,10 +1045,10 @@
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -985,10 +1059,10 @@
       <c r="B17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -999,10 +1073,10 @@
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1013,10 +1087,10 @@
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1027,10 +1101,10 @@
       <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1041,10 +1115,10 @@
       <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1055,10 +1129,10 @@
       <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1069,10 +1143,10 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1083,24 +1157,24 @@
       <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1111,52 +1185,52 @@
       <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:4" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1187,14 +1261,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="137.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>25</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>100</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>100</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>25</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="landscape" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>